--- a/data/trans_dic/P34B03_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P34B03_R-Dificultad-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.08772912636084215</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.08606261042764765</v>
+        <v>0.08606261042764767</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1012554822150751</v>
+        <v>0.103429312852827</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09194557570996031</v>
+        <v>0.09264015201452282</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1004298961784105</v>
+        <v>0.1049170811116131</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04434190150053734</v>
+        <v>0.04472253186826674</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05396838708646417</v>
+        <v>0.05419415641850297</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03289779138193052</v>
+        <v>0.03259212880378284</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07702321740215215</v>
+        <v>0.07815270569510865</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07565932982282687</v>
+        <v>0.07654514516554622</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0682962917026607</v>
+        <v>0.06831205742598921</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1448354402530974</v>
+        <v>0.1449160282323489</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1308969330074222</v>
+        <v>0.1294593520285078</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.167704225659724</v>
+        <v>0.1715917826723579</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07423615620249714</v>
+        <v>0.07415487432987483</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08002146321318021</v>
+        <v>0.0819425268750819</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07236400810232878</v>
+        <v>0.07287068173406262</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1034393698174873</v>
+        <v>0.1032846333073486</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09982698721076887</v>
+        <v>0.09921539324122847</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1054041746870456</v>
+        <v>0.1071848844147588</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1179883415890164</v>
+        <v>0.1193319186234569</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1428482604197384</v>
+        <v>0.1437120209856169</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1332115023356923</v>
+        <v>0.1331650761075079</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03236659709845345</v>
+        <v>0.03238141369931197</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08163076132982233</v>
+        <v>0.08250004638958924</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05180255710356115</v>
+        <v>0.05140722634595095</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07656370839101684</v>
+        <v>0.07545286017452624</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1164483805462879</v>
+        <v>0.1175038554552597</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0948084664354446</v>
+        <v>0.09259099663792038</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1647276516409537</v>
+        <v>0.1639487715502695</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1932037880725803</v>
+        <v>0.1911310906945067</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1957394736429846</v>
+        <v>0.1914570259463486</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05741210395531115</v>
+        <v>0.05792241148151565</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1201556489048338</v>
+        <v>0.1214711137459359</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08017399259403445</v>
+        <v>0.07836026612576896</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1021444343169222</v>
+        <v>0.1020975728686433</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1468922562914442</v>
+        <v>0.1481149719753622</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1253512647210307</v>
+        <v>0.1256189868066353</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1646163444673736</v>
+        <v>0.1630366800390845</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1713279409926788</v>
+        <v>0.1723302939021315</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.150053988743375</v>
+        <v>0.1488176918455746</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06547619023723432</v>
+        <v>0.06668839333108033</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08456182119118698</v>
+        <v>0.08312611348363999</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09004854802600724</v>
+        <v>0.0890517069332145</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1202122048807639</v>
+        <v>0.121077469481814</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1356776183792303</v>
+        <v>0.1350479385827685</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.124019877552342</v>
+        <v>0.1254822771048858</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2172960393688689</v>
+        <v>0.2177818276074507</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2292832134401884</v>
+        <v>0.228778009924968</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2050897418185781</v>
+        <v>0.2042561670654373</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1052071294072597</v>
+        <v>0.1073825690832283</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1300665193205323</v>
+        <v>0.1265762967732064</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1262368048288506</v>
+        <v>0.1261222284669928</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1542196486966042</v>
+        <v>0.1550045199046993</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1731140457594078</v>
+        <v>0.172793291051904</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1579789386798611</v>
+        <v>0.160009674140848</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1655056836699425</v>
+        <v>0.1629974044129731</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.20375916764816</v>
+        <v>0.204560341994762</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1817602002766331</v>
+        <v>0.1805798874029678</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07448707350836833</v>
+        <v>0.07495202746338225</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1148256382597057</v>
+        <v>0.1102971510899166</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0965488368054999</v>
+        <v>0.09567288189411575</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1313980343194001</v>
+        <v>0.1283263256814722</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1682187356960733</v>
+        <v>0.1684842028942328</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1441338676752524</v>
+        <v>0.1445302507344728</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.242423629242279</v>
+        <v>0.2368240147329775</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2811790722533995</v>
+        <v>0.2852595809708897</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2444576895913999</v>
+        <v>0.2458963522799696</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1352754181743542</v>
+        <v>0.1350525568121339</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1780286223573503</v>
+        <v>0.1735329813702968</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.138359323346485</v>
+        <v>0.1376312855139611</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1818725458582097</v>
+        <v>0.1784205223842114</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2203722049305065</v>
+        <v>0.2189927995520322</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.182958432004927</v>
+        <v>0.1834683584825792</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1435972446853302</v>
+        <v>0.1414767373232925</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1541082933091183</v>
+        <v>0.1546741469839919</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1583257817783693</v>
+        <v>0.1605210768112265</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05801285473432875</v>
+        <v>0.05774052324072894</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08567528195846591</v>
+        <v>0.08551083594116722</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07765180776842176</v>
+        <v>0.07724995282300944</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1030409585903002</v>
+        <v>0.1029309783590541</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1226830808922894</v>
+        <v>0.12206365230795</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1213376703591264</v>
+        <v>0.1209224401845239</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.170108895638724</v>
+        <v>0.1685588335058117</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1818749894918947</v>
+        <v>0.1806502004672922</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1899586374708934</v>
+        <v>0.192236785633073</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07437274707230317</v>
+        <v>0.07446803488964027</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.106289102086795</v>
+        <v>0.1043713758181936</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09534195247887117</v>
+        <v>0.0950389798554801</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1184387853973783</v>
+        <v>0.1185037337331933</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1390419106047263</v>
+        <v>0.1390193767994598</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1389049099532391</v>
+        <v>0.1396737286387351</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>105704</v>
+        <v>107973</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>103714</v>
+        <v>104498</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>50088</v>
+        <v>52326</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>49576</v>
+        <v>50001</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>67976</v>
+        <v>68261</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>20491</v>
+        <v>20301</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>166522</v>
+        <v>168964</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>180641</v>
+        <v>182756</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>76602</v>
+        <v>76619</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>151199</v>
+        <v>151283</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>147651</v>
+        <v>146030</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>83641</v>
+        <v>85580</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>82999</v>
+        <v>82908</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>100792</v>
+        <v>103212</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>45073</v>
+        <v>45389</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>223633</v>
+        <v>223298</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>238343</v>
+        <v>236883</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>118222</v>
+        <v>120220</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>115283</v>
+        <v>116596</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>129824</v>
+        <v>130609</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>127768</v>
+        <v>127724</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>35418</v>
+        <v>35434</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>82159</v>
+        <v>83034</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>57804</v>
+        <v>57363</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>158589</v>
+        <v>156288</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>223034</v>
+        <v>225055</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>196726</v>
+        <v>192125</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>160951</v>
+        <v>160190</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>175588</v>
+        <v>173705</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>187741</v>
+        <v>183634</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>62824</v>
+        <v>63382</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>120934</v>
+        <v>122258</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>89462</v>
+        <v>87438</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>211575</v>
+        <v>211478</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>281343</v>
+        <v>283685</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>260102</v>
+        <v>260658</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>145364</v>
+        <v>143969</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>141133</v>
+        <v>141959</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>157028</v>
+        <v>155735</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>57344</v>
+        <v>58405</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>65202</v>
+        <v>64095</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>94283</v>
+        <v>93239</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>211434</v>
+        <v>212956</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>216381</v>
+        <v>215377</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>259636</v>
+        <v>262697</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>191883</v>
+        <v>192312</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>188874</v>
+        <v>188458</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>214622</v>
+        <v>213750</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>92140</v>
+        <v>94045</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>100289</v>
+        <v>97598</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>132173</v>
+        <v>132053</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>271248</v>
+        <v>272629</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>276085</v>
+        <v>275574</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>330729</v>
+        <v>334981</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>83253</v>
+        <v>81991</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>103245</v>
+        <v>103651</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>177385</v>
+        <v>176233</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>33723</v>
+        <v>33933</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>56230</v>
+        <v>54012</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>87495</v>
+        <v>86701</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>125585</v>
+        <v>122649</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>167613</v>
+        <v>167877</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>271282</v>
+        <v>272028</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>121945</v>
+        <v>119128</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>142474</v>
+        <v>144541</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>238573</v>
+        <v>239977</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>61244</v>
+        <v>61143</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>87180</v>
+        <v>84979</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>125384</v>
+        <v>124724</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>173826</v>
+        <v>170527</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>219578</v>
+        <v>218204</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>344355</v>
+        <v>345315</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>489247</v>
+        <v>482022</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>518926</v>
+        <v>520831</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>551019</v>
+        <v>558659</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>205414</v>
+        <v>204449</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>302159</v>
+        <v>301579</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>286688</v>
+        <v>285204</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>715919</v>
+        <v>715155</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>845786</v>
+        <v>841516</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>870264</v>
+        <v>867286</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>579574</v>
+        <v>574293</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>612424</v>
+        <v>608300</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>661110</v>
+        <v>669039</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>263341</v>
+        <v>263679</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>374860</v>
+        <v>368096</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>351999</v>
+        <v>350880</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>822902</v>
+        <v>823353</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>958565</v>
+        <v>958410</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>996260</v>
+        <v>1001775</v>
       </c>
     </row>
     <row r="24">
